--- a/StructureDefinition-molicavc-questionnaire-profile.xlsx
+++ b/StructureDefinition-molicavc-questionnaire-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="518">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Questionnaire Profile</t>
+    <t>Profile of Molic-AVC's Questionnaire</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-29T02:44:39-03:00</t>
+    <t>2023-08-31T16:41:42-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>A structured set of questions intended to guide the collection of answers from end-users. Questionnaires provide detailed control over order, presentation, phraseology and grouping to allow coherent, consistent data collection.</t>
+  </si>
+  <si>
+    <t>cnl-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.exists() implies name.matches('^[A-Z]([A-Za-z0-9_]){1,254}$')}
+que-2:The link ids for groups and questions must be unique within the questionnaire {descendants().linkId.isDistinct()}</t>
   </si>
   <si>
     <t>Definition</t>
@@ -1601,6 +1605,9 @@
   </si>
   <si>
     <t>The data type of the value must agree with the item.type.</t>
+  </si>
+  <si>
+    <t>Allowed values to answer questions.</t>
   </si>
   <si>
     <t>Questionnaire.item.answerOption.initialSelected</t>
@@ -2125,16 +2132,16 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>38</v>
@@ -2145,10 +2152,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2159,7 +2166,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -2168,19 +2175,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2230,13 +2237,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2262,10 +2269,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2276,7 +2283,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -2285,16 +2292,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2345,19 +2352,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2377,10 +2384,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2391,28 +2398,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2462,19 +2469,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2494,10 +2501,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2508,7 +2515,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2520,16 +2527,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2555,13 +2562,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2579,19 +2586,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2611,21 +2618,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2637,16 +2644,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2696,19 +2703,19 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -2717,7 +2724,7 @@
         <v>38</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>38</v>
@@ -2728,14 +2735,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2754,16 +2761,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2813,7 +2820,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -2822,7 +2829,7 @@
         <v>37</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>38</v>
@@ -2834,7 +2841,7 @@
         <v>38</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>38</v>
@@ -2845,14 +2852,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2871,16 +2878,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2930,7 +2937,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -2942,7 +2949,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2951,7 +2958,7 @@
         <v>38</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>38</v>
@@ -2962,14 +2969,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2982,25 +2989,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -3049,7 +3056,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -3061,7 +3068,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -3070,7 +3077,7 @@
         <v>38</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>38</v>
@@ -3081,10 +3088,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3095,31 +3102,31 @@
         <v>36</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -3168,28 +3175,28 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>38</v>
@@ -3200,10 +3207,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3217,28 +3224,28 @@
         <v>37</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>38</v>
@@ -3287,7 +3294,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -3299,19 +3306,19 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>38</v>
@@ -3319,10 +3326,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3333,7 +3340,7 @@
         <v>36</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
@@ -3345,13 +3352,13 @@
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3402,16 +3409,16 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>38</v>
@@ -3423,7 +3430,7 @@
         <v>38</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>38</v>
@@ -3434,14 +3441,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3460,16 +3467,16 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3507,19 +3514,19 @@
         <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
@@ -3531,7 +3538,7 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
@@ -3540,7 +3547,7 @@
         <v>38</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>38</v>
@@ -3551,10 +3558,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3565,31 +3572,31 @@
         <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>38</v>
@@ -3614,11 +3621,11 @@
         <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>38</v>
@@ -3636,19 +3643,19 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
@@ -3657,21 +3664,21 @@
         <v>38</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3682,7 +3689,7 @@
         <v>36</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -3691,22 +3698,22 @@
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>38</v>
@@ -3731,13 +3738,13 @@
         <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>38</v>
@@ -3755,19 +3762,19 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>38</v>
@@ -3776,21 +3783,21 @@
         <v>38</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3801,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -3810,22 +3817,22 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -3838,7 +3845,7 @@
         <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>38</v>
@@ -3874,19 +3881,19 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
@@ -3895,21 +3902,21 @@
         <v>38</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3920,7 +3927,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -3929,19 +3936,19 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3955,7 +3962,7 @@
         <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>38</v>
@@ -3991,19 +3998,19 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
@@ -4012,21 +4019,21 @@
         <v>38</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4037,7 +4044,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -4046,16 +4053,16 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4106,19 +4113,19 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
@@ -4127,21 +4134,21 @@
         <v>38</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4152,7 +4159,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -4161,19 +4168,19 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4223,19 +4230,19 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
@@ -4244,21 +4251,21 @@
         <v>38</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4269,28 +4276,28 @@
         <v>36</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4340,28 +4347,28 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>38</v>
@@ -4372,10 +4379,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4386,28 +4393,28 @@
         <v>36</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4433,11 +4440,11 @@
         <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>38</v>
@@ -4455,22 +4462,22 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>38</v>
@@ -4487,10 +4494,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4498,34 +4505,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>38</v>
@@ -4574,28 +4581,28 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>38</v>
@@ -4606,10 +4613,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4617,31 +4624,31 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4691,28 +4698,28 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>38</v>
@@ -4723,10 +4730,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4740,28 +4747,28 @@
         <v>37</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>38</v>
@@ -4810,7 +4817,7 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
@@ -4822,16 +4829,16 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>38</v>
@@ -4842,10 +4849,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4853,34 +4860,34 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>38</v>
@@ -4905,11 +4912,11 @@
         <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>38</v>
@@ -4927,28 +4934,28 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>38</v>
@@ -4959,10 +4966,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4973,103 +4980,103 @@
         <v>36</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q26" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="P26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q26" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="R26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>38</v>
@@ -5080,10 +5087,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5097,28 +5104,28 @@
         <v>37</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
@@ -5143,11 +5150,11 @@
         <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>38</v>
@@ -5165,7 +5172,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
@@ -5177,16 +5184,16 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>38</v>
@@ -5197,42 +5204,42 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5282,28 +5289,28 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>38</v>
@@ -5314,10 +5321,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5328,31 +5335,31 @@
         <v>36</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
@@ -5401,28 +5408,28 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>38</v>
@@ -5433,10 +5440,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5450,25 +5457,25 @@
         <v>37</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5518,7 +5525,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
@@ -5530,16 +5537,16 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>38</v>
@@ -5550,10 +5557,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5564,7 +5571,7 @@
         <v>36</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -5576,13 +5583,13 @@
         <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5633,16 +5640,16 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>38</v>
@@ -5654,7 +5661,7 @@
         <v>38</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>38</v>
@@ -5665,14 +5672,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5691,16 +5698,16 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5738,19 +5745,19 @@
         <v>38</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
@@ -5762,7 +5769,7 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
@@ -5771,7 +5778,7 @@
         <v>38</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>38</v>
@@ -5782,10 +5789,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5796,7 +5803,7 @@
         <v>36</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -5805,19 +5812,19 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5867,19 +5874,19 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
@@ -5899,10 +5906,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5922,16 +5929,16 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5982,7 +5989,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -5994,7 +6001,7 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
@@ -6014,10 +6021,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6028,28 +6035,28 @@
         <v>36</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6099,28 +6106,28 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>38</v>
@@ -6131,10 +6138,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6148,28 +6155,28 @@
         <v>37</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
@@ -6218,7 +6225,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
@@ -6230,16 +6237,16 @@
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>38</v>
@@ -6250,10 +6257,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6264,7 +6271,7 @@
         <v>36</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
@@ -6276,13 +6283,13 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6333,16 +6340,16 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>38</v>
@@ -6354,7 +6361,7 @@
         <v>38</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>38</v>
@@ -6365,14 +6372,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6391,16 +6398,16 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6438,19 +6445,19 @@
         <v>38</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
@@ -6462,7 +6469,7 @@
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>38</v>
@@ -6471,7 +6478,7 @@
         <v>38</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>38</v>
@@ -6482,10 +6489,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6493,10 +6500,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
@@ -6505,16 +6512,16 @@
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6541,13 +6548,13 @@
         <v>38</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>38</v>
@@ -6565,19 +6572,19 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
@@ -6597,10 +6604,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6608,10 +6615,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
@@ -6620,16 +6627,16 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6656,13 +6663,13 @@
         <v>38</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>38</v>
@@ -6680,19 +6687,19 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
@@ -6712,10 +6719,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6729,25 +6736,25 @@
         <v>37</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6773,11 +6780,11 @@
         <v>38</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>38</v>
@@ -6795,7 +6802,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
@@ -6807,16 +6814,16 @@
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>38</v>
@@ -6827,10 +6834,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6841,10 +6848,10 @@
         <v>36</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>38</v>
@@ -6853,16 +6860,16 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6912,31 +6919,31 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>38</v>
@@ -6944,24 +6951,24 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>38</v>
@@ -6970,17 +6977,17 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -7029,31 +7036,31 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>38</v>
@@ -7061,10 +7068,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7075,10 +7082,10 @@
         <v>36</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>38</v>
@@ -7087,19 +7094,19 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -7148,22 +7155,22 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>38</v>
@@ -7180,10 +7187,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7194,10 +7201,10 @@
         <v>36</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>38</v>
@@ -7206,16 +7213,16 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7265,31 +7272,31 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>38</v>
@@ -7297,10 +7304,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7311,10 +7318,10 @@
         <v>36</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>38</v>
@@ -7323,19 +7330,19 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>38</v>
@@ -7384,31 +7391,31 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>38</v>
@@ -7416,10 +7423,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7430,31 +7437,31 @@
         <v>36</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>38</v>
@@ -7503,31 +7510,31 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>38</v>
@@ -7535,10 +7542,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7552,26 +7559,26 @@
         <v>37</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>38</v>
@@ -7596,11 +7603,11 @@
         <v>38</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>38</v>
@@ -7618,7 +7625,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
@@ -7630,16 +7637,16 @@
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>38</v>
@@ -7650,10 +7657,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7667,7 +7674,7 @@
         <v>37</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>38</v>
@@ -7676,16 +7683,16 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7735,7 +7742,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
@@ -7747,7 +7754,7 @@
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
@@ -7756,7 +7763,7 @@
         <v>38</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>38</v>
@@ -7767,10 +7774,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7781,7 +7788,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -7793,13 +7800,13 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7850,16 +7857,16 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>38</v>
@@ -7871,7 +7878,7 @@
         <v>38</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>38</v>
@@ -7882,14 +7889,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7908,16 +7915,16 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7967,7 +7974,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
@@ -7979,7 +7986,7 @@
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>38</v>
@@ -7988,7 +7995,7 @@
         <v>38</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>38</v>
@@ -7999,14 +8006,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8019,25 +8026,25 @@
         <v>38</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -8086,7 +8093,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
@@ -8098,7 +8105,7 @@
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
@@ -8107,7 +8114,7 @@
         <v>38</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>38</v>
@@ -8118,10 +8125,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8129,13 +8136,13 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>38</v>
@@ -8144,19 +8151,19 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -8205,19 +8212,19 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
@@ -8226,7 +8233,7 @@
         <v>38</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>38</v>
@@ -8237,10 +8244,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8251,10 +8258,10 @@
         <v>36</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>38</v>
@@ -8263,19 +8270,19 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -8324,19 +8331,19 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
@@ -8345,7 +8352,7 @@
         <v>38</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>38</v>
@@ -8356,10 +8363,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8373,7 +8380,7 @@
         <v>37</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>38</v>
@@ -8382,19 +8389,19 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>38</v>
@@ -8419,11 +8426,11 @@
         <v>38</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>38</v>
@@ -8441,7 +8448,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
@@ -8450,10 +8457,10 @@
         <v>37</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
@@ -8462,7 +8469,7 @@
         <v>38</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>38</v>
@@ -8473,24 +8480,24 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>38</v>
@@ -8499,19 +8506,19 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>38</v>
@@ -8560,19 +8567,19 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
@@ -8581,7 +8588,7 @@
         <v>38</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>38</v>
@@ -8592,10 +8599,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8606,10 +8613,10 @@
         <v>36</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>38</v>
@@ -8618,16 +8625,16 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8677,19 +8684,19 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
@@ -8698,7 +8705,7 @@
         <v>38</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>38</v>
@@ -8709,10 +8716,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8720,13 +8727,13 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>38</v>
@@ -8735,19 +8742,19 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>38</v>
@@ -8772,11 +8779,11 @@
         <v>38</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>38</v>
@@ -8794,19 +8801,19 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
@@ -8815,7 +8822,7 @@
         <v>38</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>38</v>
@@ -8826,10 +8833,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8843,28 +8850,28 @@
         <v>37</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>38</v>
@@ -8913,7 +8920,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
@@ -8922,10 +8929,10 @@
         <v>37</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
@@ -8934,7 +8941,7 @@
         <v>38</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>38</v>
@@ -8945,10 +8952,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8959,7 +8966,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>38</v>
@@ -8971,13 +8978,13 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9028,16 +9035,16 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>38</v>
@@ -9049,7 +9056,7 @@
         <v>38</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>38</v>
@@ -9060,14 +9067,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9086,16 +9093,16 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9145,7 +9152,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
@@ -9157,7 +9164,7 @@
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
@@ -9166,7 +9173,7 @@
         <v>38</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>38</v>
@@ -9177,14 +9184,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9197,25 +9204,25 @@
         <v>38</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>38</v>
@@ -9264,7 +9271,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
@@ -9276,7 +9283,7 @@
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
@@ -9285,7 +9292,7 @@
         <v>38</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>38</v>
@@ -9296,10 +9303,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9307,13 +9314,13 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>38</v>
@@ -9322,16 +9329,16 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9381,19 +9388,19 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
@@ -9402,7 +9409,7 @@
         <v>38</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>38</v>
@@ -9413,10 +9420,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9424,13 +9431,13 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>38</v>
@@ -9439,13 +9446,13 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9472,11 +9479,11 @@
         <v>38</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>38</v>
@@ -9494,19 +9501,19 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
@@ -9515,7 +9522,7 @@
         <v>38</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>38</v>
@@ -9526,10 +9533,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9537,13 +9544,13 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>38</v>
@@ -9552,13 +9559,13 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9585,11 +9592,11 @@
         <v>38</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>38</v>
@@ -9607,19 +9614,19 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI65" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AG65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="AJ65" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>38</v>
@@ -9628,7 +9635,7 @@
         <v>38</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>38</v>
@@ -9639,10 +9646,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9653,10 +9660,10 @@
         <v>36</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>38</v>
@@ -9665,16 +9672,16 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9700,11 +9707,11 @@
         <v>38</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>38</v>
@@ -9722,19 +9729,19 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>38</v>
@@ -9743,7 +9750,7 @@
         <v>38</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>38</v>
@@ -9754,10 +9761,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9768,7 +9775,7 @@
         <v>36</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>38</v>
@@ -9780,16 +9787,16 @@
         <v>38</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9815,13 +9822,13 @@
         <v>38</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>38</v>
@@ -9839,19 +9846,19 @@
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
@@ -9860,7 +9867,7 @@
         <v>38</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>38</v>
@@ -9871,10 +9878,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9885,10 +9892,10 @@
         <v>36</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>38</v>
@@ -9897,23 +9904,23 @@
         <v>38</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q68" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>38</v>
@@ -9958,19 +9965,19 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>38</v>
@@ -9979,7 +9986,7 @@
         <v>38</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>38</v>
@@ -9990,10 +9997,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10004,10 +10011,10 @@
         <v>36</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>38</v>
@@ -10016,82 +10023,82 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q69" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF69" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="P69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q69" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>453</v>
-      </c>
       <c r="AG69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>38</v>
@@ -10100,7 +10107,7 @@
         <v>38</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>38</v>
@@ -10111,10 +10118,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10125,10 +10132,10 @@
         <v>36</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>38</v>
@@ -10137,19 +10144,19 @@
         <v>38</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
@@ -10198,19 +10205,19 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>38</v>
@@ -10219,7 +10226,7 @@
         <v>38</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>38</v>
@@ -10230,10 +10237,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10244,10 +10251,10 @@
         <v>36</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>38</v>
@@ -10256,16 +10263,16 @@
         <v>38</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10315,19 +10322,19 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>38</v>
@@ -10336,21 +10343,21 @@
         <v>38</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10361,10 +10368,10 @@
         <v>36</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>38</v>
@@ -10373,23 +10380,23 @@
         <v>38</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q72" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="R72" t="s" s="2">
         <v>38</v>
@@ -10410,11 +10417,11 @@
         <v>38</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>38</v>
@@ -10432,19 +10439,19 @@
         <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>38</v>
@@ -10453,7 +10460,7 @@
         <v>38</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>38</v>
@@ -10464,10 +10471,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10478,10 +10485,10 @@
         <v>36</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>38</v>
@@ -10490,16 +10497,16 @@
         <v>38</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10549,19 +10556,19 @@
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>38</v>
@@ -10570,7 +10577,7 @@
         <v>38</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>38</v>
@@ -10581,10 +10588,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10598,7 +10605,7 @@
         <v>37</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>38</v>
@@ -10607,16 +10614,16 @@
         <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10666,7 +10673,7 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>36</v>
@@ -10675,10 +10682,10 @@
         <v>37</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>38</v>
@@ -10687,7 +10694,7 @@
         <v>38</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>38</v>
@@ -10698,10 +10705,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10712,7 +10719,7 @@
         <v>36</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>38</v>
@@ -10724,13 +10731,13 @@
         <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10781,16 +10788,16 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>38</v>
@@ -10802,7 +10809,7 @@
         <v>38</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>38</v>
@@ -10813,14 +10820,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10839,16 +10846,16 @@
         <v>38</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10898,7 +10905,7 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>36</v>
@@ -10910,7 +10917,7 @@
         <v>38</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>38</v>
@@ -10919,7 +10926,7 @@
         <v>38</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>38</v>
@@ -10930,14 +10937,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10950,25 +10957,25 @@
         <v>38</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>38</v>
@@ -11017,7 +11024,7 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>36</v>
@@ -11029,7 +11036,7 @@
         <v>38</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>38</v>
@@ -11038,7 +11045,7 @@
         <v>38</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>38</v>
@@ -11049,10 +11056,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11060,13 +11067,13 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>38</v>
@@ -11075,16 +11082,16 @@
         <v>38</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11110,11 +11117,13 @@
         <v>38</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="Y78" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="Z78" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>38</v>
@@ -11132,19 +11141,19 @@
         <v>38</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>38</v>
@@ -11153,7 +11162,7 @@
         <v>38</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>38</v>
@@ -11164,10 +11173,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11178,10 +11187,10 @@
         <v>36</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>38</v>
@@ -11190,13 +11199,13 @@
         <v>38</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11204,64 +11213,64 @@
         <v>38</v>
       </c>
       <c r="Q79" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF79" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="R79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>495</v>
-      </c>
       <c r="AG79" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>38</v>
@@ -11270,7 +11279,7 @@
         <v>38</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>38</v>
@@ -11281,10 +11290,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11298,7 +11307,7 @@
         <v>37</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>38</v>
@@ -11307,19 +11316,19 @@
         <v>38</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>38</v>
@@ -11368,7 +11377,7 @@
         <v>38</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>36</v>
@@ -11377,10 +11386,10 @@
         <v>37</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>38</v>
@@ -11389,7 +11398,7 @@
         <v>38</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>38</v>
@@ -11400,10 +11409,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11414,7 +11423,7 @@
         <v>36</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>38</v>
@@ -11426,13 +11435,13 @@
         <v>38</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11483,16 +11492,16 @@
         <v>38</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>38</v>
@@ -11504,7 +11513,7 @@
         <v>38</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>38</v>
@@ -11515,14 +11524,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11541,16 +11550,16 @@
         <v>38</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11600,7 +11609,7 @@
         <v>38</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>36</v>
@@ -11612,7 +11621,7 @@
         <v>38</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>38</v>
@@ -11621,7 +11630,7 @@
         <v>38</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>38</v>
@@ -11632,14 +11641,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11652,25 +11661,25 @@
         <v>38</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>38</v>
@@ -11719,7 +11728,7 @@
         <v>38</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>36</v>
@@ -11731,7 +11740,7 @@
         <v>38</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>38</v>
@@ -11740,7 +11749,7 @@
         <v>38</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>38</v>
@@ -11751,10 +11760,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11762,13 +11771,13 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>38</v>
@@ -11777,16 +11786,16 @@
         <v>38</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11812,11 +11821,13 @@
         <v>38</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="Y84" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="Z84" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>38</v>
@@ -11834,19 +11845,19 @@
         <v>38</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>38</v>
@@ -11855,7 +11866,7 @@
         <v>38</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>38</v>
@@ -11866,10 +11877,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11883,7 +11894,7 @@
         <v>37</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>38</v>
@@ -11895,16 +11906,16 @@
         <v>39</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>38</v>
@@ -11953,7 +11964,7 @@
         <v>38</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>36</v>
@@ -11965,7 +11976,7 @@
         <v>38</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>38</v>
@@ -11974,7 +11985,7 @@
         <v>38</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>38</v>

--- a/StructureDefinition-molicavc-questionnaire-profile.xlsx
+++ b/StructureDefinition-molicavc-questionnaire-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T16:41:42-03:00</t>
+    <t>2023-09-08T18:23:11-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-molicavc-questionnaire-profile.xlsx
+++ b/StructureDefinition-molicavc-questionnaire-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3189" uniqueCount="518">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-08T18:23:11-03:00</t>
+    <t>2023-10-17T16:55:27-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1822,7 +1822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1912,69 +1912,77 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B20" t="s" s="2">
         <v>34</v>
       </c>
     </row>

--- a/StructureDefinition-molicavc-questionnaire-profile.xlsx
+++ b/StructureDefinition-molicavc-questionnaire-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T16:55:27-03:00</t>
+    <t>2023-10-25T16:05:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
